--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21708"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6746C0CD-AB4C-400C-9407-4F9A5831708B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA96858A-C6A8-4E43-B447-860567267D4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="2805" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,14 @@
   </si>
   <si>
     <t>Left Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬请期待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stay Tuned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,6 +2116,17 @@
         <v>184</v>
       </c>
     </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>1098</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
